--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10944" windowHeight="8640"/>
+    <workbookView windowWidth="19668" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>HTML</t>
   </si>
@@ -257,6 +257,51 @@
   </si>
   <si>
     <t>有哪些页面置换算法</t>
+  </si>
+  <si>
+    <t>跨平台</t>
+  </si>
+  <si>
+    <t>什么是前端跨平台？你用过哪些跨平台框架？</t>
+  </si>
+  <si>
+    <t>前端跨平台是指能够在不同的操作系统、浏览器或设备上运行相同的前端应用程序，以达到统一的用户体验。主要的跨平台框架包括 React Native、Flutter、 Electron 等。</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_63490373/article/details/134764573</t>
+  </si>
+  <si>
+    <t>什么是低代码？你用过哪些低代码工具</t>
+  </si>
+  <si>
+    <t>低代码（Low-Code）是一种软件开发方法，允许用户以最小的代码量创建应用程序。"低代码"一词指的是开发者需要编写的代码量，而不是应用程序的总体复杂度。</t>
+  </si>
+  <si>
+    <t>速度更快，提高生产力。国外Webflow bubble。JEECG</t>
+  </si>
+  <si>
+    <t>git pull和git fetch什么作用？二者区别</t>
+  </si>
+  <si>
+    <t>都可以用于获取远程仓库的内容，主要区别在于是否自动合并到当前分支。git pull 相当于执行了 git fetch 后紧接着执行了 git merge，即先获取远程仓库的最新提交，然后自动合并到当前分支。</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>用于将当前工作目录中的修改保存到一个临时存储区域（称为 stash）</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/703081726</t>
+  </si>
+  <si>
+    <t>临时保存工作以切换分支，保持工作目录干净，避免合并冲突</t>
+  </si>
+  <si>
+    <t>SPA首屏加载慢优化方法</t>
+  </si>
+  <si>
+    <t>两大类：资源加载优化，页面渲染优化</t>
   </si>
 </sst>
 </file>
@@ -872,8 +917,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,13 +1235,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="53.2222222222222" customWidth="1"/>
@@ -1619,7 +1667,70 @@
         <v>75</v>
       </c>
     </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>78</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D128" r:id="rId1" display="https://blog.csdn.net/weixin_63490373/article/details/134764573"/>
+    <hyperlink ref="D134" r:id="rId2" display="https://zhuanlan.zhihu.com/p/703081726"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19668" windowHeight="9204"/>
+    <workbookView windowWidth="19224" windowHeight="9587"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,12 +467,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -793,7 +799,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -817,16 +823,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -835,90 +841,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
@@ -1237,8 +1246,8 @@
   <sheetPr/>
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1419,52 +1428,52 @@
       </c>
     </row>
     <row r="75" ht="16" customHeight="1" spans="2:2">
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" ht="16" customHeight="1" spans="2:2">
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="77" ht="16" customHeight="1" spans="2:2">
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1" spans="2:2">
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1" spans="2:2">
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1" spans="2:2">
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1" spans="2:2">
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1" spans="2:2">
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1" spans="2:2">
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1" spans="2:2">
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1677,7 +1686,7 @@
       <c r="C128" t="s">
         <v>78</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1709,7 +1718,7 @@
       <c r="C134" t="s">
         <v>86</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>87</v>
       </c>
     </row>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19224" windowHeight="9587"/>
+    <workbookView windowWidth="15264" windowHeight="9587"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
